--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -51,6 +51,30 @@
   </si>
   <si>
     <t>Effort</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Woche</t>
+  </si>
+  <si>
+    <t>Getan</t>
+  </si>
+  <si>
+    <t>bis 25.4</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Danijal</t>
+  </si>
+  <si>
+    <t>Layoutänderungen in Index</t>
+  </si>
+  <si>
+    <t>Testdatensätze eingefügt, FillDb funktioniert;Probleme beim Login: Zertifikat nicht gültig</t>
   </si>
 </sst>
 </file>
@@ -369,23 +393,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H5"/>
+  <dimension ref="C2:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -404,8 +432,17 @@
       <c r="H4" t="s">
         <v>8</v>
       </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1</v>
       </c>
@@ -423,6 +460,23 @@
       </c>
       <c r="H5">
         <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" r:id="rId1"/>
+    <sheet name="2017.05.02" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -38,43 +39,46 @@
     <t>Login</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User wants to  log in </t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Estimated</t>
-  </si>
-  <si>
-    <t>Effort</t>
-  </si>
-  <si>
-    <t>Log</t>
-  </si>
-  <si>
-    <t>Woche</t>
-  </si>
-  <si>
-    <t>Getan</t>
-  </si>
-  <si>
-    <t>bis 25.4</t>
-  </si>
-  <si>
     <t>Eva</t>
   </si>
   <si>
     <t>Danijal</t>
   </si>
   <si>
-    <t>Layoutänderungen in Index</t>
-  </si>
-  <si>
-    <t>Testdatensätze eingefügt, FillDb funktioniert;Probleme beim Login: Zertifikat nicht gültig</t>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Initial Estimation</t>
+  </si>
+  <si>
+    <t>Current Estimation</t>
+  </si>
+  <si>
+    <t>Worked</t>
+  </si>
+  <si>
+    <t>Remain</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Planned hours</t>
+  </si>
+  <si>
+    <t>Design fertigstellen</t>
+  </si>
+  <si>
+    <t>Sessions hinzufügen</t>
+  </si>
+  <si>
+    <t>Sperre zum Home Bereich einrichten</t>
+  </si>
+  <si>
+    <t>Logout</t>
   </si>
 </sst>
 </file>
@@ -393,90 +397,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42857</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="14" max="14" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
+      <c r="H3">
+        <f>F3-G3</f>
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H6" si="0">F4-G4</f>
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f>SUM(M3:M4)</f>
         <v>7</v>
       </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>42822</v>
-      </c>
-      <c r="G5" s="1">
-        <v>42853</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" t="s">
-        <v>15</v>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f>SUM(E3:E22)</f>
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F3:F22)</f>
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <f>SUM(G3:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>SUM(H3:H22)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -69,16 +69,16 @@
     <t>Planned hours</t>
   </si>
   <si>
-    <t>Design fertigstellen</t>
-  </si>
-  <si>
-    <t>Sessions hinzufügen</t>
-  </si>
-  <si>
     <t>Sperre zum Home Bereich einrichten</t>
   </si>
   <si>
-    <t>Logout</t>
+    <t>Liste anzeigen</t>
+  </si>
+  <si>
+    <t>Design erstellen</t>
+  </si>
+  <si>
+    <t>Logout Button</t>
   </si>
 </sst>
 </file>
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,12 +437,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="39.140625" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
@@ -479,22 +480,6 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f>F3-G3</f>
-        <v>3</v>
-      </c>
       <c r="L3" t="s">
         <v>4</v>
       </c>
@@ -504,20 +489,20 @@
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H6" si="0">F4-G4</f>
-        <v>1</v>
+        <f t="shared" ref="H3:H5" si="0">F4-G4</f>
+        <v>2</v>
       </c>
       <c r="L4" t="s">
         <v>5</v>
@@ -527,42 +512,47 @@
       </c>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="M5">
         <f>SUM(M3:M4)</f>
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f>F6-G6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>F7-G7</f>
         <v>1</v>
       </c>
     </row>
@@ -573,7 +563,7 @@
       </c>
       <c r="F23">
         <f>SUM(F3:F22)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <f>SUM(G3:G22)</f>
@@ -581,7 +571,7 @@
       </c>
       <c r="H23">
         <f>SUM(H3:H22)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
     <sheet name="2017.05.02" sheetId="1" r:id="rId2"/>
+    <sheet name="2017.05.09" sheetId="3" r:id="rId3"/>
+    <sheet name="2017.05.16" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -72,13 +74,34 @@
     <t>Sperre zum Home Bereich einrichten</t>
   </si>
   <si>
-    <t>Liste anzeigen</t>
-  </si>
-  <si>
     <t>Design erstellen</t>
   </si>
   <si>
     <t>Logout Button</t>
+  </si>
+  <si>
+    <t>Sessions einrichten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Foto hochladen</t>
+  </si>
+  <si>
+    <t>Design bearbeiten</t>
+  </si>
+  <si>
+    <t>16.05.20117</t>
+  </si>
+  <si>
+    <t>Tutor List</t>
+  </si>
+  <si>
+    <t>Tutor profile</t>
+  </si>
+  <si>
+    <t>Tutor list</t>
   </si>
 </sst>
 </file>
@@ -397,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,6 +450,25 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42864</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -437,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,14 +537,14 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H3:H5" si="0">F4-G4</f>
-        <v>2</v>
+        <f>F4-G4</f>
+        <v>-1</v>
       </c>
       <c r="L4" t="s">
         <v>5</v>
@@ -519,11 +561,11 @@
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -531,16 +573,16 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <f>F6-G6</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -563,15 +605,304 @@
       </c>
       <c r="F23">
         <f>SUM(F3:F22)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <f>SUM(G3:G22)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H23">
         <f>SUM(H3:H22)</f>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:L24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>E5-F5</f>
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f>SUM(L4:L5)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <f>E7-F7</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>SUM(D4:D23)</f>
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <f>SUM(E4:E23)</f>
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <f>SUM(F4:F23)</f>
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <f>SUM(G4:G23)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:L24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>E5-F5</f>
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f>SUM(L4:L5)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f>E7-F7</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" ref="G8:G9" si="0">E8-F8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>SUM(D4:D23)</f>
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <f>SUM(E4:E23)</f>
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <f>SUM(F4:F23)</f>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f>SUM(G4:G23)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
     <sheet name="2017.05.02" sheetId="1" r:id="rId2"/>
     <sheet name="2017.05.09" sheetId="3" r:id="rId3"/>
     <sheet name="2017.05.16" sheetId="4" r:id="rId4"/>
+    <sheet name="2017.05.23" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -102,6 +103,24 @@
   </si>
   <si>
     <t>Tutor list</t>
+  </si>
+  <si>
+    <t>Liste anzeigen</t>
+  </si>
+  <si>
+    <t>UOW einrichten</t>
+  </si>
+  <si>
+    <t>Liste sortieren</t>
+  </si>
+  <si>
+    <t>Programmieren</t>
+  </si>
+  <si>
+    <t>Liste filtern</t>
+  </si>
+  <si>
+    <t>25.05.1017</t>
   </si>
 </sst>
 </file>
@@ -420,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,6 +487,14 @@
       </c>
       <c r="D6" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -625,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -760,10 +787,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L24"/>
+  <dimension ref="B3:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,14 +844,14 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f>E5-F5</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>5</v>
@@ -834,74 +861,396 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
       <c r="L6">
         <f>SUM(L4:L5)</f>
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f>E8-F8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" ref="G9:G21" si="0">E9-F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>SUM(D4:D24)</f>
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <f>SUM(E4:E24)</f>
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <f>SUM(F4:F24)</f>
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <f>SUM(G4:G24)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>E3-F3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>E4-F4</f>
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" ref="G5:G6" si="0">E5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>SUM(L3:L4)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f>E7-F7</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G8">
-        <f t="shared" ref="G8:G9" si="0">E8-F8</f>
+        <f t="shared" ref="G8:G20" si="1">E8-F8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24">
-        <f>SUM(D4:D23)</f>
-        <v>9</v>
+        <f>SUM(D3:D23)</f>
+        <v>8</v>
       </c>
       <c r="E24">
-        <f>SUM(E4:E23)</f>
-        <v>9</v>
+        <f>SUM(E3:E23)</f>
+        <v>8</v>
       </c>
       <c r="F24">
-        <f>SUM(F4:F23)</f>
-        <v>1</v>
+        <f>SUM(F3:F23)</f>
+        <v>0</v>
       </c>
       <c r="G24">
-        <f>SUM(G4:G23)</f>
+        <f>SUM(G3:G23)</f>
         <v>8</v>
       </c>
     </row>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="2017.05.09" sheetId="3" r:id="rId3"/>
     <sheet name="2017.05.16" sheetId="4" r:id="rId4"/>
     <sheet name="2017.05.23" sheetId="5" r:id="rId5"/>
+    <sheet name="2017.05.30" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="32">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -120,7 +121,10 @@
     <t>Liste filtern</t>
   </si>
   <si>
-    <t>25.05.1017</t>
+    <t>23.05.1017</t>
+  </si>
+  <si>
+    <t>Bilder in Liste anzeigen</t>
   </si>
 </sst>
 </file>
@@ -439,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,6 +498,14 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42885</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -789,7 +801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -1038,7 +1050,7 @@
   <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,9 +1098,12 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
       <c r="G3">
         <f>E3-F3</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
@@ -1110,6 +1125,9 @@
       <c r="E4">
         <v>2</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="G4">
         <f>E4-F4</f>
         <v>2</v>
@@ -1151,11 +1169,11 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <f>E7-F7</f>
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -1247,11 +1265,236 @@
       </c>
       <c r="F24">
         <f>SUM(F3:F23)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G24">
         <f>SUM(G3:G23)</f>
+        <v>-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>D2-E2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" ref="F4:F5" si="0">D4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>SUM(K2:K3)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>D6-E6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" ref="F7:F19" si="1">D7-E7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f>SUM(C2:C22)</f>
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D2:D22)</f>
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <f>SUM(E2:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F2:F22)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="2017.05.16" sheetId="4" r:id="rId4"/>
     <sheet name="2017.05.23" sheetId="5" r:id="rId5"/>
     <sheet name="2017.05.30" sheetId="6" r:id="rId6"/>
+    <sheet name="2017.06.06" sheetId="7" r:id="rId7"/>
+    <sheet name="2017.06.13" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="36">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -125,6 +127,18 @@
   </si>
   <si>
     <t>Bilder in Liste anzeigen</t>
+  </si>
+  <si>
+    <t>Reviews verknüpfen</t>
+  </si>
+  <si>
+    <t>nach Reviews sortieren</t>
+  </si>
+  <si>
+    <t>Klick auf Tutor</t>
+  </si>
+  <si>
+    <t>Design</t>
   </si>
 </sst>
 </file>
@@ -443,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +520,22 @@
         <v>42885</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42892</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42899</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1281,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,9 +1359,12 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
       <c r="F2">
         <f>D2-E2</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
@@ -1353,9 +1386,12 @@
       <c r="D3">
         <v>3</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -1394,11 +1430,11 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <f>D6-E6</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1490,10 +1526,344 @@
       </c>
       <c r="E23">
         <f>SUM(E2:E22)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F23">
         <f>SUM(F2:F22)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>D2-E2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" si="0">D3-E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f>D5-E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" ref="F6:F7" si="1">D6-E6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>SUM(C2:C9)</f>
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D2:D9)</f>
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <f>SUM(E2:E9)</f>
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F2:F9)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>SUM(B13:B14)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f>D2-E2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" si="0">D3-E3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>D5-E5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F7" si="1">D6-E6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>SUM(C2:C9)</f>
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D2:D9)</f>
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <f>SUM(E2:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F2:F9)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>SUM(B13:B14)</f>
         <v>7</v>
       </c>
     </row>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="2017.05.30" sheetId="6" r:id="rId6"/>
     <sheet name="2017.06.06" sheetId="7" r:id="rId7"/>
     <sheet name="2017.06.13" sheetId="8" r:id="rId8"/>
+    <sheet name="2017.06.20" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="40">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -139,6 +140,18 @@
   </si>
   <si>
     <t>Design</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Accept/Reject Reviews</t>
+  </si>
+  <si>
+    <t>Change Masterdata</t>
+  </si>
+  <si>
+    <t>Maintain Tutoring profiles</t>
   </si>
 </sst>
 </file>
@@ -457,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,6 +549,14 @@
         <v>42899</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42906</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1706,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,9 +1769,12 @@
       <c r="D2">
         <v>2</v>
       </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
       <c r="F2">
         <f>D2-E2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1763,9 +1787,12 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3">
         <f t="shared" ref="F3:F4" si="0">D3-E3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1788,11 +1815,11 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <f>D5-E5</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1807,6 +1834,9 @@
       </c>
       <c r="D6">
         <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F7" si="1">D6-E6</f>
@@ -1830,11 +1860,11 @@
       </c>
       <c r="E10">
         <f>SUM(E2:E9)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1870,4 +1900,172 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <f>D2-E2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" si="0">D3-E3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>D6-E6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" ref="F7" si="1">D7-E7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>SUM(C2:C9)</f>
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D2:D9)</f>
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <f>SUM(E2:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F2:F9)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>SUM(B13:B14)</f>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="2017.06.06" sheetId="7" r:id="rId7"/>
     <sheet name="2017.06.13" sheetId="8" r:id="rId8"/>
     <sheet name="2017.06.20" sheetId="9" r:id="rId9"/>
+    <sheet name="2017.09.15" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="43">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -152,6 +153,15 @@
   </si>
   <si>
     <t>Maintain Tutoring profiles</t>
+  </si>
+  <si>
+    <t>Tutor</t>
+  </si>
+  <si>
+    <t>Create tutoring profile</t>
+  </si>
+  <si>
+    <t>maintain tutoring profile</t>
   </si>
 </sst>
 </file>
@@ -470,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" activeCellId="1" sqref="A12 G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,6 +568,153 @@
       </c>
       <c r="B11" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42993</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f>D2-E2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>D6-E6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>SUM(C2:C9)</f>
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D2:D9)</f>
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <f>SUM(E2:E9)</f>
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F2:F9)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>SUM(B13:B14)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1906,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,9 +2106,12 @@
       <c r="D2">
         <v>5</v>
       </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
       <c r="F2">
         <f>D2-E2</f>
-        <v>5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1967,9 +2127,12 @@
       <c r="D3">
         <v>5</v>
       </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
       <c r="F3">
         <f t="shared" ref="F3:F4" si="0">D3-E3</f>
-        <v>5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2028,11 +2191,11 @@
       </c>
       <c r="E10">
         <f>SUM(E2:E9)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="2017.06.13" sheetId="8" r:id="rId8"/>
     <sheet name="2017.06.20" sheetId="9" r:id="rId9"/>
     <sheet name="2017.09.15" sheetId="10" r:id="rId10"/>
+    <sheet name="2017.09.22" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="47">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -162,6 +163,18 @@
   </si>
   <si>
     <t>maintain tutoring profile</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Edit Tutors</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -480,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" activeCellId="1" sqref="A12 G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +588,14 @@
         <v>42993</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43000</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -585,10 +606,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,44 +668,212 @@
       <c r="D3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>D6-E6</f>
-        <v>3</v>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>D7-E7</f>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>SUM(C2:C9)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <f>SUM(D2:D9)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <f>SUM(E2:E9)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(B14:B15)</f>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f>D2-E2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>D6-E6</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>SUM(C2:C9)</f>
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D2:D9)</f>
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <f>SUM(E2:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F2:F9)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -700,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -708,13 +897,13 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>SUM(B13:B14)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Documents\GitHub\Nachhilfeboerse\01_Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danijal\Documents\Nachhilfeboerse\01_Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="2017.09.15" sheetId="10" r:id="rId10"/>
     <sheet name="2017.09.22" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,21 +492,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -514,7 +514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>42857</v>
       </c>
@@ -524,7 +524,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>42864</v>
       </c>
@@ -532,7 +532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -543,7 +543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -551,7 +551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>42885</v>
       </c>
@@ -559,7 +559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>42892</v>
       </c>
@@ -567,7 +567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>42899</v>
       </c>
@@ -575,7 +575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>42906</v>
       </c>
@@ -583,7 +583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>42993</v>
       </c>
@@ -591,7 +591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>43000</v>
       </c>
@@ -605,19 +605,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -637,7 +637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -658,7 +658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -672,7 +672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -721,7 +721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>16</v>
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -747,7 +747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -755,7 +755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -763,7 +763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16">
         <f>SUM(B14:B15)</f>
         <v>14</v>
@@ -775,16 +775,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -804,7 +804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -822,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>45</v>
       </c>
@@ -837,7 +837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -851,14 +851,14 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <f>D6-E6</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>22</v>
@@ -869,14 +869,14 @@
       </c>
       <c r="E10">
         <f>SUM(E2:E9)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -884,7 +884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -892,7 +892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -900,7 +900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15">
         <f>SUM(B13:B14)</f>
         <v>22</v>
@@ -912,23 +912,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="14" max="14" width="60.85546875" customWidth="1"/>
+    <col min="4" max="4" width="39.1328125" customWidth="1"/>
+    <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.265625" customWidth="1"/>
+    <col min="14" max="14" width="60.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>6</v>
       </c>
@@ -954,7 +954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -965,7 +965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
         <v>14</v>
       </c>
@@ -989,13 +989,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.45">
       <c r="M5">
         <f>SUM(M3:M4)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>16</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E23">
         <f>SUM(E3:E22)</f>
         <v>7</v>
@@ -1058,21 +1058,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -1133,13 +1133,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L6">
         <f>SUM(L4:L5)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D24">
         <f>SUM(D4:D23)</f>
         <v>8</v>
@@ -1195,20 +1195,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1311,13 +1311,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G9">
         <f t="shared" ref="G9:G21" si="0">E9-F9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -1359,67 +1359,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D25">
         <f>SUM(D4:D24)</f>
         <v>13</v>
@@ -1443,20 +1443,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.265625" customWidth="1"/>
+    <col min="3" max="3" width="22.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>29</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G5">
         <f t="shared" ref="G5:G6" si="0">E5-F5</f>
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -1573,85 +1573,85 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G8">
         <f t="shared" ref="G8:G20" si="1">E8-F8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D24">
         <f>SUM(D3:D23)</f>
         <v>8</v>
@@ -1675,19 +1675,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F4">
         <f t="shared" ref="F4:F5" si="0">D4-E4</f>
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1804,85 +1804,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F7">
         <f t="shared" ref="F7:F19" si="1">D7-E7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C23">
         <f>SUM(C2:C22)</f>
         <v>7</v>
@@ -1906,16 +1906,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1977,13 +1977,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F6">
         <f t="shared" ref="F6:F7" si="1">D6-E6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>5</v>
@@ -2034,7 +2034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15">
         <f>SUM(B13:B14)</f>
         <v>4</v>
@@ -2070,19 +2070,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2189,13 +2189,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>7</v>
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15">
         <f>SUM(B13:B14)</f>
         <v>7</v>
@@ -2249,20 +2249,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.265625" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2363,13 +2363,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F7">
         <f t="shared" ref="F7" si="1">D7-E7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>21</v>
@@ -2387,7 +2387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15">
         <f>SUM(B13:B14)</f>
         <v>21</v>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danijal\Documents\Nachhilfeboerse\01_Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Documents\GitHub\Nachhilfeboerse\01_Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="2017.06.20" sheetId="9" r:id="rId9"/>
     <sheet name="2017.09.15" sheetId="10" r:id="rId10"/>
     <sheet name="2017.09.22" sheetId="11" r:id="rId11"/>
+    <sheet name="2017.10.06" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="51">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -175,12 +176,24 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Model Change + bugs</t>
+  </si>
+  <si>
+    <t>Design responsive</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Bugs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,21 +505,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -514,7 +527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42857</v>
       </c>
@@ -524,7 +537,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42864</v>
       </c>
@@ -532,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -543,7 +556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -551,7 +564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42885</v>
       </c>
@@ -559,7 +572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42892</v>
       </c>
@@ -567,7 +580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42899</v>
       </c>
@@ -575,7 +588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42906</v>
       </c>
@@ -583,7 +596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42993</v>
       </c>
@@ -591,12 +604,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43000</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43007</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -605,19 +634,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.86328125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -637,7 +666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -658,7 +687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -672,7 +701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -686,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -700,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -721,7 +750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>16</v>
@@ -739,7 +768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -747,7 +776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -755,7 +784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -763,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>SUM(B14:B15)</f>
         <v>14</v>
@@ -775,16 +804,153 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f>D2-E2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <f>D6-E6</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>SUM(C2:C9)</f>
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D2:D9)</f>
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <f>SUM(E2:E9)</f>
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F2:F9)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>SUM(B13:B14)</f>
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -804,79 +970,63 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <f>D2-E2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <f>D6-E6</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F4:F6" si="0">D6-E6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>SUM(C2:C9)</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <f>SUM(D2:D9)</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <f>SUM(E2:E9)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -884,26 +1034,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>SUM(B13:B14)</f>
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -912,23 +1062,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="39.1328125" customWidth="1"/>
-    <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.265625" customWidth="1"/>
-    <col min="14" max="14" width="60.86328125" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="14" max="14" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>6</v>
       </c>
@@ -954,7 +1104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -965,7 +1115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>14</v>
       </c>
@@ -989,13 +1139,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M5">
         <f>SUM(M3:M4)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -1016,7 +1166,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>16</v>
       </c>
@@ -1034,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E23">
         <f>SUM(E3:E22)</f>
         <v>7</v>
@@ -1058,21 +1208,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1098,7 +1248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1109,7 +1259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -1133,13 +1283,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L6">
         <f>SUM(L4:L5)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -1160,7 +1310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -1171,7 +1321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24">
         <f>SUM(D4:D23)</f>
         <v>8</v>
@@ -1195,20 +1345,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.3984375" customWidth="1"/>
-    <col min="3" max="3" width="19.3984375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1234,7 +1384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1245,7 +1395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -1269,7 +1419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -1290,7 +1440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1311,13 +1461,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G9">
         <f t="shared" ref="G9:G21" si="0">E9-F9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -1338,7 +1488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -1359,67 +1509,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25">
         <f>SUM(D4:D24)</f>
         <v>13</v>
@@ -1443,20 +1593,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.265625" customWidth="1"/>
-    <col min="3" max="3" width="22.73046875" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -1482,7 +1632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -1509,7 +1659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>29</v>
       </c>
@@ -1536,7 +1686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G5">
         <f t="shared" ref="G5:G6" si="0">E5-F5</f>
         <v>0</v>
@@ -1546,13 +1696,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -1573,85 +1723,85 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G8">
         <f t="shared" ref="G8:G20" si="1">E8-F8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24">
         <f>SUM(D3:D23)</f>
         <v>8</v>
@@ -1675,19 +1825,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.265625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1713,7 +1863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1740,7 +1890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1767,7 +1917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F4">
         <f t="shared" ref="F4:F5" si="0">D4-E4</f>
         <v>0</v>
@@ -1777,13 +1927,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1804,85 +1954,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7">
         <f t="shared" ref="F7:F19" si="1">D7-E7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23">
         <f>SUM(C2:C22)</f>
         <v>7</v>
@@ -1906,16 +2056,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1935,7 +2085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1956,7 +2106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1977,13 +2127,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2004,19 +2154,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6">
         <f t="shared" ref="F6:F7" si="1">D6-E6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>5</v>
@@ -2034,7 +2184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2042,7 +2192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2050,7 +2200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2058,7 +2208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>SUM(B13:B14)</f>
         <v>4</v>
@@ -2070,19 +2220,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.86328125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2102,7 +2252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2123,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2141,13 +2291,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2168,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2189,13 +2339,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>7</v>
@@ -2213,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2221,7 +2371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2237,7 +2387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>SUM(B13:B14)</f>
         <v>7</v>
@@ -2249,20 +2399,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.265625" customWidth="1"/>
-    <col min="2" max="2" width="22.1328125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2282,7 +2432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2303,7 +2453,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2324,7 +2474,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2342,7 +2492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2363,13 +2513,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F7">
         <f t="shared" ref="F7" si="1">D7-E7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>21</v>
@@ -2387,7 +2537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2395,7 +2545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2403,7 +2553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2411,7 +2561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>SUM(B13:B14)</f>
         <v>21</v>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="2017.09.15" sheetId="10" r:id="rId10"/>
     <sheet name="2017.09.22" sheetId="11" r:id="rId11"/>
     <sheet name="2017.10.06" sheetId="12" r:id="rId12"/>
+    <sheet name="2017.17.10" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="54">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -188,6 +189,15 @@
   </si>
   <si>
     <t>Bugs</t>
+  </si>
+  <si>
+    <t>Model Change</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Tutor accept</t>
   </si>
 </sst>
 </file>
@@ -506,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,6 +636,14 @@
       </c>
       <c r="B15" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43025</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -944,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,9 +1003,12 @@
       <c r="D3">
         <v>6</v>
       </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1004,7 +1025,7 @@
         <v>6</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F4:F6" si="0">D6-E6</f>
+        <f t="shared" ref="F6" si="0">D6-E6</f>
         <v>6</v>
       </c>
     </row>
@@ -1019,11 +1040,11 @@
       </c>
       <c r="E10">
         <f>SUM(E2:E9)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1054,6 +1075,157 @@
       <c r="B15">
         <f>SUM(B13:B14)</f>
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F5" si="0">D4-E4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8" si="1">D8-E8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D11)</f>
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E2:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F2:F11)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>SUM(B15:B16)</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Documents\GitHub\Nachhilfeboerse\01_Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danijal\Documents\Nachhilfeboerse\01_Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="2017.10.06" sheetId="12" r:id="rId12"/>
     <sheet name="2017.17.10" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -203,8 +203,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,9 +240,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -515,134 +523,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="10.6640625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
         <v>42857</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
         <v>42864</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
         <v>42885</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
         <v>42892</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
         <v>42899</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
         <v>42906</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
         <v>42993</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
         <v>43000</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
         <v>43007</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
         <v>43014</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
         <v>43025</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -652,19 +663,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -684,7 +695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -705,7 +716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -719,7 +730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -733,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -747,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -768,7 +779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>16</v>
@@ -786,7 +797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -794,7 +805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -802,7 +813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -810,7 +821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16">
         <f>SUM(B14:B15)</f>
         <v>14</v>
@@ -822,16 +833,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -851,7 +862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -869,7 +880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>45</v>
       </c>
@@ -884,7 +895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -905,7 +916,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>22</v>
@@ -923,7 +934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -931,7 +942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -939,7 +950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -947,7 +958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15">
         <f>SUM(B13:B14)</f>
         <v>22</v>
@@ -959,16 +970,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -988,12 +999,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -1011,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1024,12 +1035,15 @@
       <c r="D6">
         <v>6</v>
       </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
       <c r="F6">
         <f t="shared" ref="F6" si="0">D6-E6</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>12</v>
@@ -1040,14 +1054,14 @@
       </c>
       <c r="E10">
         <f>SUM(E2:E9)</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F10">
         <f>SUM(F2:F9)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1063,7 +1077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15">
         <f>SUM(B13:B14)</f>
         <v>12</v>
@@ -1083,16 +1097,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1112,12 +1126,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -1132,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>52</v>
       </c>
@@ -1147,7 +1161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -1162,7 +1176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1170,24 +1184,24 @@
         <v>48</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <f t="shared" ref="F8" si="1">D8-E8</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C12">
         <f>SUM(C2:C11)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D11)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <f>SUM(E2:E11)</f>
@@ -1195,10 +1209,10 @@
       </c>
       <c r="F12">
         <f>SUM(F2:F11)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1206,7 +1220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1214,18 +1228,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17">
         <f>SUM(B15:B16)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1234,23 +1248,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="14" max="14" width="60.85546875" customWidth="1"/>
+    <col min="4" max="4" width="39.1328125" customWidth="1"/>
+    <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.265625" customWidth="1"/>
+    <col min="14" max="14" width="60.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>6</v>
       </c>
@@ -1276,7 +1290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
         <v>14</v>
       </c>
@@ -1311,13 +1325,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.45">
       <c r="M5">
         <f>SUM(M3:M4)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -1338,7 +1352,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>16</v>
       </c>
@@ -1356,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E23">
         <f>SUM(E3:E22)</f>
         <v>7</v>
@@ -1380,21 +1394,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +1434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1431,7 +1445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -1455,13 +1469,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L6">
         <f>SUM(L4:L5)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -1482,7 +1496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -1493,7 +1507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D24">
         <f>SUM(D4:D23)</f>
         <v>8</v>
@@ -1517,20 +1531,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1556,7 +1570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1567,7 +1581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -1591,7 +1605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -1612,7 +1626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1633,13 +1647,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G9">
         <f t="shared" ref="G9:G21" si="0">E9-F9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -1660,7 +1674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -1681,67 +1695,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D25">
         <f>SUM(D4:D24)</f>
         <v>13</v>
@@ -1765,20 +1779,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.265625" customWidth="1"/>
+    <col min="3" max="3" width="22.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +1818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -1831,7 +1845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>29</v>
       </c>
@@ -1858,7 +1872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G5">
         <f t="shared" ref="G5:G6" si="0">E5-F5</f>
         <v>0</v>
@@ -1868,13 +1882,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -1895,85 +1909,85 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G8">
         <f t="shared" ref="G8:G20" si="1">E8-F8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="G16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.45">
       <c r="G20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D24">
         <f>SUM(D3:D23)</f>
         <v>8</v>
@@ -1997,19 +2011,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2035,7 +2049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2062,7 +2076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2089,7 +2103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F4">
         <f t="shared" ref="F4:F5" si="0">D4-E4</f>
         <v>0</v>
@@ -2099,13 +2113,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2126,85 +2140,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F7">
         <f t="shared" ref="F7:F19" si="1">D7-E7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C23">
         <f>SUM(C2:C22)</f>
         <v>7</v>
@@ -2228,16 +2242,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2257,7 +2271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2278,7 +2292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2299,13 +2313,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2326,19 +2340,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F6">
         <f t="shared" ref="F6:F7" si="1">D6-E6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>5</v>
@@ -2356,7 +2370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2364,7 +2378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2372,7 +2386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2380,7 +2394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15">
         <f>SUM(B13:B14)</f>
         <v>4</v>
@@ -2392,19 +2406,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2424,7 +2438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2445,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2463,13 +2477,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2490,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2511,13 +2525,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>7</v>
@@ -2535,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2543,7 +2557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2551,7 +2565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2559,7 +2573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15">
         <f>SUM(B13:B14)</f>
         <v>7</v>
@@ -2571,20 +2585,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.265625" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2604,7 +2618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2625,7 +2639,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2646,7 +2660,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2664,7 +2678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2685,13 +2699,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="F7">
         <f t="shared" ref="F7" si="1">D7-E7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>21</v>
@@ -2709,7 +2723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2717,7 +2731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2725,7 +2739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2733,7 +2747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15">
         <f>SUM(B13:B14)</f>
         <v>21</v>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danijal\Documents\Nachhilfeboerse\01_Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Documents\GitHub\Nachhilfeboerse\01_Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -25,8 +25,9 @@
     <sheet name="2017.09.22" sheetId="11" r:id="rId11"/>
     <sheet name="2017.10.06" sheetId="12" r:id="rId12"/>
     <sheet name="2017.17.10" sheetId="13" r:id="rId13"/>
+    <sheet name="2017.24.10" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="56">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -198,12 +199,18 @@
   </si>
   <si>
     <t>Tutor accept</t>
+  </si>
+  <si>
+    <t>Comments for teachers</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,10 +247,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -523,24 +531,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.6640625" style="1"/>
+    <col min="1" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -548,7 +556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42857</v>
       </c>
@@ -558,7 +566,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42864</v>
       </c>
@@ -566,7 +574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -577,7 +585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -585,7 +593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42885</v>
       </c>
@@ -593,7 +601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42892</v>
       </c>
@@ -601,7 +609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42899</v>
       </c>
@@ -609,7 +617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42906</v>
       </c>
@@ -617,7 +625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42993</v>
       </c>
@@ -625,7 +633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43000</v>
       </c>
@@ -633,7 +641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43007</v>
       </c>
@@ -641,7 +649,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43014</v>
       </c>
@@ -649,12 +657,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43025</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>43032</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -663,19 +679,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.86328125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -695,7 +711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -716,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -730,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -744,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -758,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -779,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>16</v>
@@ -797,7 +813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -805,7 +821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -813,7 +829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -821,7 +837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>SUM(B14:B15)</f>
         <v>14</v>
@@ -833,16 +849,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -862,7 +878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -880,7 +896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>45</v>
       </c>
@@ -895,7 +911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -916,7 +932,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>22</v>
@@ -934,7 +950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -942,7 +958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -950,7 +966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -958,7 +974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>SUM(B13:B14)</f>
         <v>22</v>
@@ -970,16 +986,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -999,12 +1015,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -1022,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1043,7 +1059,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>12</v>
@@ -1061,7 +1077,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1069,7 +1085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>SUM(B13:B14)</f>
         <v>12</v>
@@ -1097,16 +1113,182 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F5" si="0">D4-E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8" si="1">D8-E8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D11)</f>
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E2:E11)</f>
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F2:F11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>SUM(B15:B16)</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1126,57 +1308,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F5" si="0">D4-E4</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1190,18 +1342,18 @@
         <v>8</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8" si="1">D8-E8</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <f t="shared" ref="F8" si="0">D8-E8</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>SUM(C2:C11)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D11)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <f>SUM(E2:E11)</f>
@@ -1209,10 +1361,10 @@
       </c>
       <c r="F12">
         <f>SUM(F2:F11)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1220,15 +1372,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1236,10 +1388,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>SUM(B15:B16)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1248,23 +1400,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="39.1328125" customWidth="1"/>
-    <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.265625" customWidth="1"/>
-    <col min="14" max="14" width="60.86328125" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="14" max="14" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>6</v>
       </c>
@@ -1290,7 +1442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -1301,7 +1453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>14</v>
       </c>
@@ -1325,13 +1477,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M5">
         <f>SUM(M3:M4)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -1352,7 +1504,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>16</v>
       </c>
@@ -1370,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E23">
         <f>SUM(E3:E22)</f>
         <v>7</v>
@@ -1394,21 +1546,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1434,7 +1586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1445,7 +1597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -1469,13 +1621,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L6">
         <f>SUM(L4:L5)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -1496,7 +1648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -1507,7 +1659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24">
         <f>SUM(D4:D23)</f>
         <v>8</v>
@@ -1531,20 +1683,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.3984375" customWidth="1"/>
-    <col min="3" max="3" width="19.3984375" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1570,7 +1722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1581,7 +1733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -1605,7 +1757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -1626,7 +1778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1647,13 +1799,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G9">
         <f t="shared" ref="G9:G21" si="0">E9-F9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -1674,7 +1826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -1695,67 +1847,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25">
         <f>SUM(D4:D24)</f>
         <v>13</v>
@@ -1779,20 +1931,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.265625" customWidth="1"/>
-    <col min="3" max="3" width="22.73046875" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -1818,7 +1970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -1845,7 +1997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>29</v>
       </c>
@@ -1872,7 +2024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G5">
         <f t="shared" ref="G5:G6" si="0">E5-F5</f>
         <v>0</v>
@@ -1882,13 +2034,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -1909,85 +2061,85 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G8">
         <f t="shared" ref="G8:G20" si="1">E8-F8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24">
         <f>SUM(D3:D23)</f>
         <v>8</v>
@@ -2011,19 +2163,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.265625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2049,7 +2201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2076,7 +2228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2103,7 +2255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F4">
         <f t="shared" ref="F4:F5" si="0">D4-E4</f>
         <v>0</v>
@@ -2113,13 +2265,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2140,85 +2292,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7">
         <f t="shared" ref="F7:F19" si="1">D7-E7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23">
         <f>SUM(C2:C22)</f>
         <v>7</v>
@@ -2242,16 +2394,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2271,7 +2423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2292,7 +2444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2313,13 +2465,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2340,19 +2492,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6">
         <f t="shared" ref="F6:F7" si="1">D6-E6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>5</v>
@@ -2370,7 +2522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2378,7 +2530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2386,7 +2538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2394,7 +2546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>SUM(B13:B14)</f>
         <v>4</v>
@@ -2406,19 +2558,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.86328125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2438,7 +2590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2459,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2477,13 +2629,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2504,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2525,13 +2677,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>7</v>
@@ -2549,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2557,7 +2709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2565,7 +2717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2573,7 +2725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>SUM(B13:B14)</f>
         <v>7</v>
@@ -2585,20 +2737,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.265625" customWidth="1"/>
-    <col min="2" max="2" width="22.1328125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2618,7 +2770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2639,7 +2791,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2660,7 +2812,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2678,7 +2830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2699,13 +2851,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F7">
         <f t="shared" ref="F7" si="1">D7-E7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>21</v>
@@ -2723,7 +2875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2731,7 +2883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2739,7 +2891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2747,7 +2899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>SUM(B13:B14)</f>
         <v>21</v>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="2017.10.06" sheetId="12" r:id="rId12"/>
     <sheet name="2017.17.10" sheetId="13" r:id="rId13"/>
     <sheet name="2017.24.10" sheetId="14" r:id="rId14"/>
+    <sheet name="2017.14.11" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="57">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -205,6 +206,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Login time issues, design responsive</t>
   </si>
 </sst>
 </file>
@@ -247,11 +251,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -532,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,6 +675,14 @@
         <v>43032</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>43053</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1279,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,9 +1336,12 @@
       <c r="D3">
         <v>6</v>
       </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1341,9 +1357,12 @@
       <c r="D8">
         <v>8</v>
       </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
       <c r="F8">
         <f t="shared" ref="F8" si="0">D8-E8</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1357,11 +1376,11 @@
       </c>
       <c r="E12">
         <f>SUM(E2:E11)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F12">
         <f>SUM(F2:F11)</f>
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1392,6 +1411,130 @@
       <c r="B17">
         <f>SUM(B15:B16)</f>
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <f>D8-E8</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D11)</f>
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E2:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F2:F11)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>SUM(B15:B16)</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="2017.17.10" sheetId="13" r:id="rId13"/>
     <sheet name="2017.24.10" sheetId="14" r:id="rId14"/>
     <sheet name="2017.14.11" sheetId="15" r:id="rId15"/>
+    <sheet name="2017.21.11" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="61">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -209,6 +210,18 @@
   </si>
   <si>
     <t>Login time issues, design responsive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accept/Reject tutor (Role refreshing issues) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delete Tutor afterwards </t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Bugs/Delete tutor afterwards</t>
   </si>
 </sst>
 </file>
@@ -537,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,6 +697,14 @@
       </c>
       <c r="B18" s="3" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>43060</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1422,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,9 +1487,12 @@
       <c r="D3">
         <v>6</v>
       </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1484,9 +1508,12 @@
       <c r="D8">
         <v>7</v>
       </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
       <c r="F8">
         <f>D8-E8</f>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1500,11 +1527,11 @@
       </c>
       <c r="E12">
         <f>SUM(E2:E11)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <f>SUM(F2:F11)</f>
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1539,6 +1566,173 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>D4-E4</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>D8-E8</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>D9-E9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D11)</f>
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E2:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F2:F11)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>SUM(B15:B16)</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -28,6 +28,7 @@
     <sheet name="2017.24.10" sheetId="14" r:id="rId14"/>
     <sheet name="2017.14.11" sheetId="15" r:id="rId15"/>
     <sheet name="2017.21.11" sheetId="16" r:id="rId16"/>
+    <sheet name="2017.28.11" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="63">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -222,6 +223,12 @@
   </si>
   <si>
     <t>Bugs/Delete tutor afterwards</t>
+  </si>
+  <si>
+    <t>Testing and Planning</t>
+  </si>
+  <si>
+    <t>Testing, Design</t>
   </si>
 </sst>
 </file>
@@ -550,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,6 +712,14 @@
       </c>
       <c r="B19" s="3" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>43067</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1589,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,11 +1633,11 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1636,11 +1651,11 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <f>D4-E4</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1657,11 +1672,11 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <f>D8-E8</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1675,11 +1690,11 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <f>D9-E9</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1693,11 +1708,11 @@
       </c>
       <c r="E12">
         <f>SUM(E2:E11)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F12">
         <f>SUM(F2:F11)</f>
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1733,6 +1748,154 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>D8-E8</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>D9-E9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D11)</f>
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E2:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F2:F11)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>SUM(B15:B16)</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="2017.14.11" sheetId="15" r:id="rId15"/>
     <sheet name="2017.21.11" sheetId="16" r:id="rId16"/>
     <sheet name="2017.28.11" sheetId="17" r:id="rId17"/>
+    <sheet name="2017.05.12" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="66">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -229,6 +230,15 @@
   </si>
   <si>
     <t>Testing, Design</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Release and Planning</t>
+  </si>
+  <si>
+    <t>Planning</t>
   </si>
 </sst>
 </file>
@@ -557,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,6 +730,14 @@
       </c>
       <c r="B20" s="3" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>43074</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1756,7 +1774,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,11 +1818,11 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1821,11 +1839,11 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <f>D8-E8</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1839,11 +1857,159 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <f>D9-E9</f>
-        <v>3</v>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D11)</f>
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E2:E11)</f>
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F2:F11)</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>SUM(B15:B16)</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>D8-E8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>D9-E9</f>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="2017.21.11" sheetId="16" r:id="rId16"/>
     <sheet name="2017.28.11" sheetId="17" r:id="rId17"/>
     <sheet name="2017.05.12" sheetId="18" r:id="rId18"/>
+    <sheet name="2017.12.12" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="69">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -235,10 +236,19 @@
     <t>Release</t>
   </si>
   <si>
-    <t>Release and Planning</t>
-  </si>
-  <si>
     <t>Planning</t>
+  </si>
+  <si>
+    <t>Tutoring request</t>
+  </si>
+  <si>
+    <t>Release and planning</t>
+  </si>
+  <si>
+    <t>Images for tutors</t>
+  </si>
+  <si>
+    <t>Tutoring request, images</t>
   </si>
 </sst>
 </file>
@@ -567,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,6 +748,14 @@
       </c>
       <c r="B21" s="3" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>43081</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1921,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,7 +1975,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -1966,11 +1984,11 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1978,7 +1996,155 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <f>D8-E8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f>D9-E9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D11)</f>
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E2:E11)</f>
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F2:F11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>SUM(B15:B16)</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>65</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
       </c>
       <c r="C8">
         <v>4</v>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -31,6 +31,7 @@
     <sheet name="2017.28.11" sheetId="17" r:id="rId17"/>
     <sheet name="2017.05.12" sheetId="18" r:id="rId18"/>
     <sheet name="2017.12.12" sheetId="19" r:id="rId19"/>
+    <sheet name="2017.12.19" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="73">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -249,6 +250,18 @@
   </si>
   <si>
     <t>Tutoring request, images</t>
+  </si>
+  <si>
+    <t>Filter tutors in  comment page by subject</t>
+  </si>
+  <si>
+    <t>Filter bug</t>
+  </si>
+  <si>
+    <t>Admin mail</t>
+  </si>
+  <si>
+    <t>Admin mail, filter</t>
   </si>
 </sst>
 </file>
@@ -577,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,6 +769,14 @@
       </c>
       <c r="B22" s="3" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2088,7 +2109,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,17 +2147,31 @@
         <v>65</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>6</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2153,11 +2188,11 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <f>D8-E8</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,11 +2206,11 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <f>D9-E9</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2189,11 +2224,11 @@
       </c>
       <c r="E12">
         <f>SUM(E2:E11)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F12">
         <f>SUM(F2:F11)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2377,6 +2412,150 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>D8-E8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D11)</f>
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E2:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>SUM(F2:F11)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>SUM(B15:B16)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L24"/>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="13" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,8 @@
     <sheet name="2017.28.11" sheetId="17" r:id="rId17"/>
     <sheet name="2017.05.12" sheetId="18" r:id="rId18"/>
     <sheet name="2017.12.12" sheetId="19" r:id="rId19"/>
-    <sheet name="2017.12.19" sheetId="20" r:id="rId20"/>
+    <sheet name="2017.19.12" sheetId="20" r:id="rId20"/>
+    <sheet name="2018.10.01" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="76">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -262,6 +263,15 @@
   </si>
   <si>
     <t>Admin mail, filter</t>
+  </si>
+  <si>
+    <t>Sort tutors</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Images, sort</t>
   </si>
 </sst>
 </file>
@@ -590,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,6 +787,14 @@
       </c>
       <c r="B23" s="3" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>43110</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2417,7 +2435,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2461,11 +2479,11 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2479,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2496,11 +2514,11 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <f>D8-E8</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2514,11 +2532,11 @@
       </c>
       <c r="E12">
         <f>SUM(E2:E11)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <f>SUM(F2:F11)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2549,6 +2567,154 @@
       <c r="B17">
         <f>SUM(B15:B16)</f>
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>D7-E7</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>D8-E8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>SUM(C2:C10)</f>
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D10)</f>
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F2:F10)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(B14:B15)</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="13" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="14" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="2017.12.12" sheetId="19" r:id="rId19"/>
     <sheet name="2017.19.12" sheetId="20" r:id="rId20"/>
     <sheet name="2018.10.01" sheetId="21" r:id="rId21"/>
+    <sheet name="2018.16.01" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="77">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -272,6 +273,9 @@
   </si>
   <si>
     <t>Images, sort</t>
+  </si>
+  <si>
+    <t>Release Docs</t>
   </si>
 </sst>
 </file>
@@ -2578,8 +2582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2623,11 +2627,11 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2644,11 +2648,11 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <f>D7-E7</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2662,11 +2666,11 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <f>D8-E8</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2680,11 +2684,11 @@
       </c>
       <c r="E11">
         <f>SUM(E2:E10)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <f>SUM(F2:F10)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2715,6 +2719,169 @@
       <c r="B16">
         <f>SUM(B14:B15)</f>
         <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>D4-E4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>D7-E7</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>D8-E8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>SUM(C2:C10)</f>
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D10)</f>
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F2:F10)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(B14:B15)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="14" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="15" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="2017.19.12" sheetId="20" r:id="rId20"/>
     <sheet name="2018.10.01" sheetId="21" r:id="rId21"/>
     <sheet name="2018.16.01" sheetId="22" r:id="rId22"/>
+    <sheet name="2018.23.01" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="77">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -2731,7 +2732,198 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>D4-E4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f>D7-E7</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>D8-E8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>SUM(C2:C10)</f>
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D10)</f>
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F2:F10)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(B14:B15)</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="15" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="79">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>Release Docs</t>
+  </si>
+  <si>
+    <t>Release &amp; Planning</t>
+  </si>
+  <si>
+    <t>Desing</t>
   </si>
 </sst>
 </file>
@@ -605,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,6 +806,22 @@
       </c>
       <c r="B24" s="3" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2731,7 +2753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -2923,10 +2945,13 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2955,20 +2980,20 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2976,7 +3001,7 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -2994,48 +3019,30 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
         <f>D7-E7</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f>D8-E8</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>SUM(C2:C10)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <f>SUM(D2:D10)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <f>SUM(E2:E10)</f>
@@ -3043,7 +3050,7 @@
       </c>
       <c r="F11">
         <f>SUM(F2:F10)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3067,13 +3074,13 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>SUM(B14:B15)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -35,6 +35,7 @@
     <sheet name="2018.10.01" sheetId="21" r:id="rId21"/>
     <sheet name="2018.16.01" sheetId="22" r:id="rId22"/>
     <sheet name="2018.23.01" sheetId="23" r:id="rId23"/>
+    <sheet name="2018.30.01" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="82">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -282,7 +283,16 @@
     <t>Release &amp; Planning</t>
   </si>
   <si>
-    <t>Desing</t>
+    <t>Bug fixes</t>
+  </si>
+  <si>
+    <t>Reviews &amp; Review accept</t>
+  </si>
+  <si>
+    <t>Different images</t>
+  </si>
+  <si>
+    <t>Reviews &amp; Design</t>
   </si>
 </sst>
 </file>
@@ -611,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,6 +832,14 @@
       </c>
       <c r="B26" s="3" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2945,7 +2963,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2989,11 +3007,11 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3007,11 +3025,11 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f>D4-E4</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3019,7 +3037,7 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3028,11 +3046,218 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <f>D7-E7</f>
-        <v>6</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>SUM(C2:C10)</f>
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D10)</f>
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F2:F10)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(B14:B15)</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F11" si="0">D4-E4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3042,15 +3267,15 @@
       </c>
       <c r="D11">
         <f>SUM(D2:D10)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <f>SUM(E2:E10)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>SUM(F2:F10)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="17" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -36,6 +36,8 @@
     <sheet name="2018.16.01" sheetId="22" r:id="rId22"/>
     <sheet name="2018.23.01" sheetId="23" r:id="rId23"/>
     <sheet name="2018.30.01" sheetId="24" r:id="rId24"/>
+    <sheet name="2018.06.02" sheetId="25" r:id="rId25"/>
+    <sheet name="Tabelle2" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="84">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -293,6 +295,12 @@
   </si>
   <si>
     <t>Reviews &amp; Design</t>
+  </si>
+  <si>
+    <t>(krank)</t>
+  </si>
+  <si>
+    <t>Reviews &amp; Statistics</t>
   </si>
 </sst>
 </file>
@@ -623,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3128,7 +3136,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3172,11 +3180,11 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3190,11 +3198,11 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F11" si="0">D4-E4</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3223,11 +3231,11 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3241,11 +3249,11 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3271,11 +3279,11 @@
       </c>
       <c r="E11">
         <f>SUM(E2:E10)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3306,6 +3314,348 @@
       <c r="B16">
         <f>SUM(B14:B15)</f>
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F11" si="0">D4-E4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>SUM(C2:C10)</f>
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D10)</f>
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(B14:B15)</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" ref="F4:F11" si="0">D5-E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>SUM(C2:C10)</f>
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D10)</f>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(B14:B15)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="17" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,8 @@
     <sheet name="2018.23.01" sheetId="23" r:id="rId23"/>
     <sheet name="2018.30.01" sheetId="24" r:id="rId24"/>
     <sheet name="2018.06.02" sheetId="25" r:id="rId25"/>
-    <sheet name="Tabelle2" sheetId="26" r:id="rId26"/>
+    <sheet name="2018.26.02" sheetId="26" r:id="rId26"/>
+    <sheet name="2018.05.03" sheetId="27" r:id="rId27"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="85">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -301,6 +302,9 @@
   </si>
   <si>
     <t>Reviews &amp; Statistics</t>
+  </si>
+  <si>
+    <t>(Probematura, Visual Studio Update)</t>
   </si>
 </sst>
 </file>
@@ -629,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,6 +852,22 @@
       </c>
       <c r="B27" s="3" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3504,10 +3524,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3516,6 +3536,166 @@
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" ref="F5:F11" si="0">D5-E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>SUM(C2:C10)</f>
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D10)</f>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(B14:B15)</f>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
@@ -3543,25 +3723,25 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F5">
-        <f t="shared" ref="F4:F11" si="0">D5-E5</f>
+        <f t="shared" ref="F5:F11" si="0">D5-E5</f>
         <v>0</v>
       </c>
     </row>
@@ -3579,17 +3759,17 @@
         <v>35</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3613,11 +3793,11 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>SUM(C2:C10)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <f>SUM(D2:D10)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <f>SUM(E2:E10)</f>
@@ -3625,7 +3805,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3641,7 +3821,7 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3649,13 +3829,13 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>SUM(B14:B15)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -39,6 +39,7 @@
     <sheet name="2018.06.02" sheetId="25" r:id="rId25"/>
     <sheet name="2018.26.02" sheetId="26" r:id="rId26"/>
     <sheet name="2018.05.03" sheetId="27" r:id="rId27"/>
+    <sheet name="2018.12.03" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="86">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -305,6 +306,9 @@
   </si>
   <si>
     <t>(Probematura, Visual Studio Update)</t>
+  </si>
+  <si>
+    <t>(Research, nothing found)</t>
   </si>
 </sst>
 </file>
@@ -633,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,6 +871,14 @@
         <v>43164</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3688,10 +3700,170 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" ref="F5:F11" si="0">D5-E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>SUM(C2:C10)</f>
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D10)</f>
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(B14:B15)</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -40,6 +40,7 @@
     <sheet name="2018.26.02" sheetId="26" r:id="rId26"/>
     <sheet name="2018.05.03" sheetId="27" r:id="rId27"/>
     <sheet name="2018.12.03" sheetId="28" r:id="rId28"/>
+    <sheet name="2018.09.04" sheetId="29" r:id="rId29"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="86">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -637,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,6 +880,14 @@
         <v>43171</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>43199</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3863,7 +3872,164 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" ref="F5:F11" si="0">D5-E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>SUM(C2:C10)</f>
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D10)</f>
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(B14:B15)</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/01_Planning/SprintLog.xlsx
+++ b/01_Planning/SprintLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="21" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <sheet name="2018.05.03" sheetId="27" r:id="rId27"/>
     <sheet name="2018.12.03" sheetId="28" r:id="rId28"/>
     <sheet name="2018.09.04" sheetId="29" r:id="rId29"/>
+    <sheet name="Tabelle1" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="86">
   <si>
     <t>Sprint Log</t>
   </si>
@@ -638,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,6 +890,14 @@
       </c>
       <c r="B31" s="3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>43206</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4029,7 +4038,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4070,11 +4079,11 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <f>D3-E3</f>
-        <v>6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4103,11 +4112,11 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4139,11 +4148,11 @@
       </c>
       <c r="E11">
         <f>SUM(E2:E10)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4318,6 +4327,163 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <f>D3-E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" ref="F5:F11" si="0">D5-E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>SUM(C2:C10)</f>
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D10)</f>
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E10)</f>
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>SUM(B14:B15)</f>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L25"/>
